--- a/webapp/app/src/app/nakajo/a00100/job/a00100/export/job/request/report/Report.xlsx
+++ b/webapp/app/src/app/nakajo/a00100/job/a00100/export/job/request/report/Report.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\デスクトップ\リピート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD453601-59E7-4C64-9548-796295555038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C95DE7-35A4-4A9C-926D-345A973C7BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22905" yWindow="2685" windowWidth="26115" windowHeight="13515" xr2:uid="{1A9F8E62-3B08-435D-8352-4D9FDD2CF833}"/>
+    <workbookView xWindow="75" yWindow="1170" windowWidth="23925" windowHeight="6180" activeTab="1" xr2:uid="{1A9F8E62-3B08-435D-8352-4D9FDD2CF833}"/>
   </bookViews>
   <sheets>
     <sheet name="EPARK会員情報" sheetId="1" r:id="rId1"/>
+    <sheet name="テイクアウト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>評価</t>
   </si>
@@ -550,6 +551,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F169716-15FC-4205-8C16-FD1A90781544}">
   <dimension ref="A1:R2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="8" width="13.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="2" customWidth="1"/>
+    <col min="11" max="18" width="11.5703125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="51" thickTop="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="12.75" thickTop="1">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E5507E-6623-42ED-9D08-137F251FE5A9}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/webapp/app/src/app/nakajo/a00100/job/a00100/export/job/request/report/Report.xlsx
+++ b/webapp/app/src/app/nakajo/a00100/job/a00100/export/job/request/report/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C95DE7-35A4-4A9C-926D-345A973C7BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE0DDC-3DB3-4A92-A86D-DA390604AA59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1170" windowWidth="23925" windowHeight="6180" activeTab="1" xr2:uid="{1A9F8E62-3B08-435D-8352-4D9FDD2CF833}"/>
+    <workbookView xWindow="975" yWindow="1455" windowWidth="21825" windowHeight="10950" activeTab="1" xr2:uid="{1A9F8E62-3B08-435D-8352-4D9FDD2CF833}"/>
   </bookViews>
   <sheets>
     <sheet name="EPARK会員情報" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -648,7 +651,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/webapp/app/src/app/nakajo/a00100/job/a00100/export/job/request/report/Report.xlsx
+++ b/webapp/app/src/app/nakajo/a00100/job/a00100/export/job/request/report/Report.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE0DDC-3DB3-4A92-A86D-DA390604AA59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B795CBB2-CB40-4118-9DB1-B88087DD8F43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1455" windowWidth="21825" windowHeight="10950" activeTab="1" xr2:uid="{1A9F8E62-3B08-435D-8352-4D9FDD2CF833}"/>
+    <workbookView xWindow="0" yWindow="2730" windowWidth="24030" windowHeight="6450" xr2:uid="{1A9F8E62-3B08-435D-8352-4D9FDD2CF833}"/>
   </bookViews>
   <sheets>
-    <sheet name="EPARK会員情報" sheetId="1" r:id="rId1"/>
+    <sheet name="会員情報" sheetId="1" r:id="rId1"/>
     <sheet name="テイクアウト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -144,8 +144,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -213,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +234,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F169716-15FC-4205-8C16-FD1A90781544}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -563,7 +567,7 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="8" width="13.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
     <col min="11" max="18" width="11.5703125" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -637,7 +641,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="5"/>
+      <c r="R2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -650,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E5507E-6623-42ED-9D08-137F251FE5A9}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -662,7 +666,7 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="8" width="13.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
     <col min="11" max="18" width="11.5703125" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -736,7 +740,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="5"/>
+      <c r="R2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
